--- a/data/trans_bre/P0902-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Edad-trans_bre.xlsx
@@ -662,25 +662,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2707344829757044</v>
+        <v>-0.2075997408515263</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8151195383145358</v>
+        <v>-0.7721555311752378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9724904659366134</v>
+        <v>-0.9085073402050556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.314402196660233</v>
+        <v>2.247994298099055</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1737576685669766</v>
+        <v>-0.1140155145321313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.295949965821111</v>
+        <v>-0.2240030441153725</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4814264547121095</v>
+        <v>-0.4347339816447588</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.472489741479135</v>
+        <v>4.264310656326715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.149640889500488</v>
+        <v>4.198498134287717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.266990614663478</v>
+        <v>3.508708847383271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.55498592761214</v>
+        <v>9.368503566373573</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.975849174454197</v>
+        <v>3.223910139033596</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.148283977469389</v>
+        <v>2.438318346926669</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.085730006158052</v>
+        <v>3.614894007307679</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -747,7 +747,7 @@
         <v>0.510789832859376</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2390532887539001</v>
+        <v>-0.2390532887539002</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.212754804079137</v>
+        <v>2.235080936230966</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5118741496736993</v>
+        <v>-0.5071246475478189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7683399883339003</v>
+        <v>-0.6963841024263817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.259805029676024</v>
+        <v>-5.307477101810107</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5313135560174604</v>
+        <v>0.5298050905963836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1520869432969461</v>
+        <v>-0.1414761924056417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1945171311630685</v>
+        <v>-0.1697861556047207</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5890697662328302</v>
+        <v>-0.5959089498030965</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.802325178388788</v>
+        <v>6.880875156370831</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.217784037546825</v>
+        <v>3.904663024301994</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.257002562319838</v>
+        <v>4.314331061707184</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.561809878266322</v>
+        <v>1.687881972907594</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.645957909269462</v>
+        <v>3.752402055788165</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.90166652657902</v>
+        <v>1.662102703524104</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.667593705868965</v>
+        <v>1.749334172121313</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3459877911607801</v>
+        <v>0.3671365168479023</v>
       </c>
     </row>
     <row r="10">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.109041436294564</v>
+        <v>0.9382887585204284</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.050153136572076</v>
+        <v>2.070599260576724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8642287417749657</v>
+        <v>1.016946444710795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.239974562410656</v>
+        <v>0.9801896448832389</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1604425833611833</v>
+        <v>0.1281154669373123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2807795038013297</v>
+        <v>0.2514163842974745</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1455240302129914</v>
+        <v>0.1644952186856459</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1533283477845712</v>
+        <v>0.1170463422845139</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.348454564257952</v>
+        <v>6.475427277632628</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.069412355581166</v>
+        <v>8.282559524330946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.949924741087782</v>
+        <v>6.212254891940657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.598399426704766</v>
+        <v>6.71037855575713</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.759751276011201</v>
+        <v>1.844438588510673</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.762005099811543</v>
+        <v>1.724990263140453</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.780317150099349</v>
+        <v>1.986986860401854</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.420492996368837</v>
+        <v>1.44902051639086</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>3.391688946370917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.614137323621362</v>
+        <v>1.614137323621365</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8891150708629354</v>
@@ -947,7 +947,7 @@
         <v>0.3703192789797231</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1237530388522997</v>
+        <v>0.1237530388522999</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.320571918331107</v>
+        <v>2.399252343168033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.526097885713058</v>
+        <v>3.951770336301875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4919220354895487</v>
+        <v>-0.1058198767164337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.825887582387874</v>
+        <v>-1.634676844652065</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2444841746367283</v>
+        <v>0.2798809480384158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3529999789013226</v>
+        <v>0.4027991489694996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04963514733745598</v>
+        <v>-0.01810801234308212</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1232458286126657</v>
+        <v>-0.1149223301063768</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.501437345094315</v>
+        <v>9.726709875219242</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.37516823072024</v>
+        <v>11.30758862382517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.027574225630954</v>
+        <v>7.105588335756854</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.891000281419739</v>
+        <v>5.028785284816184</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.818433140921437</v>
+        <v>1.853858993717801</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.763476521504939</v>
+        <v>1.754433899724489</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.930979838064426</v>
+        <v>0.9098043438962473</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4398854069108718</v>
+        <v>0.4759818067752848</v>
       </c>
     </row>
     <row r="16">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.129686359622166</v>
+        <v>-3.306789559834318</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.950027650052681</v>
+        <v>6.004797759006709</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.578817322652919</v>
+        <v>5.946662102625131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.168050286914824</v>
+        <v>0.2997596549038437</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1995709761329876</v>
+        <v>-0.2093588349931418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3234575983184654</v>
+        <v>0.3207465184682505</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3680271949003334</v>
+        <v>0.4252029170057091</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.004791132116011062</v>
+        <v>0.01525171454464387</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.729307935958029</v>
+        <v>6.715149702513575</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.22838086101534</v>
+        <v>17.10448608537989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.48992040825249</v>
+        <v>16.4300274792046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.481648904349882</v>
+        <v>8.725874220920705</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5758087236093078</v>
+        <v>0.591906907124822</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.298148784737314</v>
+        <v>1.278762861427108</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.689979168206813</v>
+        <v>1.733632627823528</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5107486324067204</v>
+        <v>0.5389454123460569</v>
       </c>
     </row>
     <row r="19">
@@ -1147,7 +1147,7 @@
         <v>0.9494444453225074</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.7508213415289071</v>
+        <v>0.750821341528907</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.387901565765522</v>
+        <v>6.528479169522925</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.973715305018614</v>
+        <v>5.997382461763765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.614007851521672</v>
+        <v>9.835908201991167</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.004472035528421</v>
+        <v>7.709823951892004</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3250758587465076</v>
+        <v>0.3119991863858669</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2118997683106089</v>
+        <v>0.2049368698308968</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4833772298547453</v>
+        <v>0.5006809008445409</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4331696443416047</v>
+        <v>0.4181236631886809</v>
       </c>
     </row>
     <row r="21">
@@ -1190,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.5078366248116</v>
+        <v>19.22381101625719</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>20.75023447783417</v>
+        <v>20.52911695412717</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22.34718657997857</v>
+        <v>22.5396901703799</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.9819949442083</v>
+        <v>16.03708912101643</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.371867033779637</v>
+        <v>1.365005188649602</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.047644377362563</v>
+        <v>1.019423919780444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.595148431200952</v>
+        <v>1.727777306641101</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.275970339199765</v>
+        <v>1.149336408917788</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1235,7 @@
         <v>20.75048768227832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22.5549178006273</v>
+        <v>22.55491780062728</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2527526233076687</v>
@@ -1247,7 +1247,7 @@
         <v>0.6249407876342077</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6930292528382365</v>
+        <v>0.6930292528382356</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4433996046930361</v>
+        <v>-0.3644878696570019</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.286373440674182</v>
+        <v>7.277913492644313</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.87992637791711</v>
+        <v>12.4969408678723</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.63849435306363</v>
+        <v>17.05101946460653</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.01282050560952884</v>
+        <v>-0.009297021635733605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1460886663372907</v>
+        <v>0.1463459251663538</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3469854394405677</v>
+        <v>0.3325883177029704</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4660635624412796</v>
+        <v>0.4776540238265408</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.49691119095575</v>
+        <v>17.6368256137838</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.87608119559974</v>
+        <v>24.4297958943067</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28.92286336374472</v>
+        <v>28.53838705398618</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28.13461305928155</v>
+        <v>28.11260671278162</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.560080160826371</v>
+        <v>0.6158220931993752</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6317705317249968</v>
+        <v>0.6309505796781507</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9920461073581173</v>
+        <v>0.9895254824202899</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.973195108394679</v>
+        <v>1.008723003236439</v>
       </c>
     </row>
     <row r="25">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.941235208657972</v>
+        <v>5.069613356825497</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.377599868019757</v>
+        <v>7.232948105047003</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.903285799214818</v>
+        <v>6.783630007139661</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.671805428895828</v>
+        <v>5.656492639962794</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5543569391865506</v>
+        <v>0.5744096197612113</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6229793509768591</v>
+        <v>0.6138036475128134</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6757780922902522</v>
+        <v>0.669747796989322</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4210405129126062</v>
+        <v>0.4173833228302132</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.020125256336428</v>
+        <v>8.023856976890263</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.89737327546901</v>
+        <v>10.81773269234258</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.12564067297398</v>
+        <v>10.26308136031374</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.810936956418344</v>
+        <v>8.712976544506002</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.077040117920043</v>
+        <v>1.074225507609279</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.070863379990437</v>
+        <v>1.064080961788311</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.185634846480173</v>
+        <v>1.186083273602961</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7553906351467985</v>
+        <v>0.7510467978056834</v>
       </c>
     </row>
     <row r="28">
